--- a/results/scale/nondectime_grouped_wide_with_scale.xlsx
+++ b/results/scale/nondectime_grouped_wide_with_scale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,105 +436,100 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>subj_idx</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>subj_idx</t>
+          <t>emotion_negative_negative</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_negative</t>
+          <t>emotion_negative_positive</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_positive</t>
+          <t>emotion_positive_negative</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_negative</t>
+          <t>emotion_positive_positive</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_positive</t>
+          <t>shape_negative_negative</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_negative</t>
+          <t>shape_negative_positive</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_positive</t>
+          <t>shape_positive_negative</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_negative</t>
+          <t>shape_positive_positive</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_positive</t>
+          <t>emotion_positivePrimeIndex</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrimeIndex</t>
+          <t>emotion_negativePrimeIndex</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negativePrimeIndex</t>
+          <t>shape_positivePrimeIndex</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrimeIndex</t>
+          <t>shape_negativePrimeIndex</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>shape_negativePrimeIndex</t>
+          <t>shape_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrime-negativePrime</t>
+          <t>emotion_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrime-negativePrime</t>
+          <t>test</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>name</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>anxiety</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>anxiety</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>HAMD</t>
         </is>
@@ -543,3544 +538,3294 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>56189087</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>0.3246831897776456</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.3246831897776456</v>
+        <v>0.2462042708017683</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2462042708017683</v>
+        <v>0.3661669890115736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3661669890115736</v>
+        <v>0.2005966578818403</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2005966578818403</v>
+        <v>0.3270094324563996</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3270094324563996</v>
+        <v>0.2002658270368134</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2002658270368134</v>
+        <v>0.2055937847563081</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2055937847563081</v>
+        <v>0.2544799250090691</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2544799250090691</v>
+        <v>0.04148379923392798</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1655703311297333</v>
+        <v>0.04560761291992799</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0784789189758773</v>
+        <v>-0.1214156477000915</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.04888614025276097</v>
+        <v>-0.05421409797225568</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1267436054195862</v>
+        <v>-0.06720154972783576</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.06720154972783576</v>
+        <v>-0.004123813686000011</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.004123813686000011</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.08853833351849119</v>
-      </c>
-      <c r="R2" t="inlineStr">
+        <v>-0.0713253634138358</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>钟文霞</t>
         </is>
       </c>
+      <c r="R2" t="n">
+        <v>18</v>
+      </c>
       <c r="S2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U2" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>56277415</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>0.3049311762260511</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.3049311762260511</v>
+        <v>0.3021110662058915</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3021110662058915</v>
+        <v>0.2760021975476102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2760021975476102</v>
+        <v>0.2840315069693075</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2840315069693075</v>
+        <v>0.2926001724402127</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2926001724402127</v>
+        <v>0.2736592835109965</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2736592835109965</v>
+        <v>0.293798983113731</v>
       </c>
       <c r="I3" t="n">
-        <v>0.293798983113731</v>
+        <v>0.342696535107608</v>
       </c>
       <c r="J3" t="n">
-        <v>0.342696535107608</v>
+        <v>-0.02892897867844091</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.008029309421697328</v>
+        <v>0.018079559236584</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002820110020159583</v>
+        <v>0.001198810673518291</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.04889755199387702</v>
+        <v>-0.0690372515966115</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01894088892921619</v>
+        <v>0.0702360622701298</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0702360622701298</v>
+        <v>-0.04700853791502491</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.04700853791502491</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.07868786036495012</v>
-      </c>
-      <c r="R3" t="inlineStr">
+        <v>0.02322752435510489</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>孔张骋</t>
         </is>
       </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>56279808</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>0.3132623489774269</v>
+      </c>
       <c r="C4" t="n">
-        <v>0.3132623489774269</v>
+        <v>0.2127937878197571</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2127937878197571</v>
+        <v>0.2385040638260833</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2385040638260833</v>
+        <v>0.2003745545545688</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2003745545545688</v>
+        <v>0.2838683240242236</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2838683240242236</v>
+        <v>0.2495058972624595</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2495058972624595</v>
+        <v>0.2179077928100882</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2179077928100882</v>
+        <v>0.200663387040819</v>
       </c>
       <c r="J4" t="n">
-        <v>0.200663387040819</v>
+        <v>-0.07475828515134358</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03812950927151451</v>
+        <v>0.01241923326518832</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1004685611576698</v>
+        <v>-0.06596053121413537</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01724440576926919</v>
+        <v>0.04884251022164049</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03436242676176407</v>
+        <v>-0.1148030414357759</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1148030414357759</v>
+        <v>-0.08717751841653187</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.08717751841653187</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-0.07945707287865014</v>
-      </c>
-      <c r="R4" t="inlineStr">
+        <v>-0.2019805598523078</v>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>戴俞锋</t>
         </is>
+      </c>
+      <c r="R4" t="n">
+        <v>16</v>
       </c>
       <c r="S4" t="n">
         <v>16</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
-      </c>
-      <c r="U4" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>56343776</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>0.2007146637013931</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.2007146637013931</v>
+        <v>0.2180718262833841</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2180718262833841</v>
+        <v>0.3154632404157279</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3154632404157279</v>
+        <v>0.2027293519857158</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2027293519857158</v>
+        <v>0.2006767207995365</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2006767207995365</v>
+        <v>0.2004406869139469</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2004406869139469</v>
+        <v>0.2180887947977623</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2180887947977623</v>
+        <v>0.2028196702685973</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2028196702685973</v>
+        <v>0.1147485767143348</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1127338884300121</v>
+        <v>0.0153424742976683</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01735716258199099</v>
+        <v>0.01741207399822581</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01526912452916501</v>
+        <v>-0.002378983354650394</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0002360338855895983</v>
+        <v>0.01979105735287623</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01979105735287623</v>
+        <v>0.09940610241666648</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09940610241666648</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.1451241416555785</v>
-      </c>
-      <c r="R5" t="inlineStr">
+        <v>0.1191971597695427</v>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>蒲柳衣</t>
         </is>
       </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>56346638</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>0.2007364929488255</v>
+      </c>
       <c r="C6" t="n">
-        <v>0.2007364929488255</v>
+        <v>0.3439593558923592</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3439593558923592</v>
+        <v>0.3992201440358603</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3992201440358603</v>
+        <v>0.3586165035938055</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3586165035938055</v>
+        <v>0.3327849716725666</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3327849716725666</v>
+        <v>0.4159301244154993</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4159301244154993</v>
+        <v>0.3692850421260405</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3692850421260405</v>
+        <v>0.3204782438520116</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3204782438520116</v>
+        <v>0.1984836510870348</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04060364044205483</v>
+        <v>-0.01465714770144627</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.1432228629435337</v>
+        <v>0.03650007045347392</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0488067982740289</v>
+        <v>0.09545188056348769</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.08314515274293272</v>
+        <v>-0.05895181011001382</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.05895181011001382</v>
+        <v>0.2131407987884811</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2131407987884811</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.3157784544025501</v>
-      </c>
-      <c r="R6" t="inlineStr">
+        <v>0.1541889886784673</v>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>许乔峰</t>
         </is>
       </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>56352066</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>0.3661722787274697</v>
+      </c>
       <c r="C7" t="n">
-        <v>0.3661722787274697</v>
+        <v>0.2543844229103857</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2543844229103857</v>
+        <v>0.2994958332312074</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2994958332312074</v>
+        <v>0.4393474997112988</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4393474997112988</v>
+        <v>0.4643426258025774</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4643426258025774</v>
+        <v>0.4223942792719171</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4223942792719171</v>
+        <v>0.2850406014127781</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2850406014127781</v>
+        <v>0.2454449934767469</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2454449934767469</v>
+        <v>-0.06667644549626234</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1398516664800914</v>
+        <v>-0.1849630768009131</v>
       </c>
       <c r="L7" t="n">
-        <v>0.111787855817084</v>
+        <v>-0.1793020243897993</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0395956079360312</v>
+        <v>0.1769492857951702</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04194834653066032</v>
+        <v>-0.3562513101849695</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.3562513101849695</v>
+        <v>0.1182866313046507</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1182866313046507</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-0.2539922608918045</v>
-      </c>
-      <c r="R7" t="inlineStr">
+        <v>-0.2379646788803188</v>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>周鼎</t>
         </is>
       </c>
+      <c r="R7" t="n">
+        <v>10</v>
+      </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T7" t="n">
-        <v>13</v>
-      </c>
-      <c r="U7" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>56354957</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>0.3122494743947834</v>
+      </c>
       <c r="C8" t="n">
-        <v>0.3122494743947834</v>
+        <v>0.2006632312199981</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2006632312199981</v>
+        <v>0.3496761376080065</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3496761376080065</v>
+        <v>0.2923358536986246</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2923358536986246</v>
+        <v>0.3652153248193114</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3652153248193114</v>
+        <v>0.269283451593671</v>
       </c>
       <c r="H8" t="n">
-        <v>0.269283451593671</v>
+        <v>0.3357448905043418</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3357448905043418</v>
+        <v>0.2004659591021777</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2004659591021777</v>
+        <v>0.03742666321322308</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0573402839093819</v>
+        <v>-0.09167262247862648</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1115862431747853</v>
+        <v>-0.0294704343149696</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1352789314021641</v>
+        <v>0.0688174924914933</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0959318732256404</v>
+        <v>-0.09828792680646281</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.09828792680646281</v>
+        <v>0.1290992856918496</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1290992856918496</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-0.0148989010888797</v>
-      </c>
-      <c r="R8" t="inlineStr">
+        <v>0.03081135888538666</v>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>肖方睿</t>
         </is>
       </c>
+      <c r="R8" t="n">
+        <v>11</v>
+      </c>
       <c r="S8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U8" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>56358294</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>0.4099895734821167</v>
+      </c>
       <c r="C9" t="n">
-        <v>0.4099895734821167</v>
+        <v>0.3179908733988772</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3179908733988772</v>
+        <v>0.3918586640433617</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3918586640433617</v>
+        <v>0.2002145396050403</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2002145396050403</v>
+        <v>0.2562585373026483</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2562585373026483</v>
+        <v>0.2969937995519357</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2969937995519357</v>
+        <v>0.3516692960853972</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3516692960853972</v>
+        <v>0.3084119524941675</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3084119524941675</v>
+        <v>-0.01813090943875495</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1916441244383214</v>
+        <v>0.1177763337938369</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09199870008323946</v>
+        <v>0.09541075878274891</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04325734359122974</v>
+        <v>-0.01141815294223175</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.04073526224928742</v>
+        <v>0.1068289117249805</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1068289117249805</v>
+        <v>-0.1359072432325918</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.1359072432325918</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.1836380301955991</v>
-      </c>
-      <c r="R9" t="inlineStr">
+        <v>-0.02907833150761122</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>钟福琳</t>
         </is>
       </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>56362338</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>0.2003584813529752</v>
+      </c>
       <c r="C10" t="n">
-        <v>0.2003584813529752</v>
+        <v>0.3722203555451751</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3722203555451751</v>
+        <v>0.4113878390557808</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4113878390557808</v>
+        <v>0.3000468725276667</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3000468725276667</v>
+        <v>0.3232965738323378</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3232965738323378</v>
+        <v>0.3651041360713805</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3651041360713805</v>
+        <v>0.2019481217032361</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2019481217032361</v>
+        <v>0.2021901411839917</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2021901411839917</v>
+        <v>0.2110293577028056</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1113409665281141</v>
+        <v>0.07217348301750837</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1718618741921999</v>
+        <v>-0.1213484521291017</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.000242019480755612</v>
+        <v>0.1629139948873888</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.04180756223904269</v>
+        <v>-0.2842624470164905</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.2842624470164905</v>
+        <v>0.1388558746852973</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1388558746852973</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.324768383478601</v>
-      </c>
-      <c r="R10" t="inlineStr">
+        <v>-0.1454065723311933</v>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>陆鸿运</t>
         </is>
       </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
       <c r="S10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
-      </c>
-      <c r="U10" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>56365025</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>0.3418011482367188</v>
+      </c>
       <c r="C11" t="n">
-        <v>0.3418011482367188</v>
+        <v>0.3643425670320557</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3643425670320557</v>
+        <v>0.2001408599631707</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2001408599631707</v>
+        <v>0.2907654586122175</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2907654586122175</v>
+        <v>0.3675982183550834</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3675982183550834</v>
+        <v>0.394997014627475</v>
       </c>
       <c r="H11" t="n">
-        <v>0.394997014627475</v>
+        <v>0.4107675304210527</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4107675304210527</v>
+        <v>0.2644815709043054</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2644815709043054</v>
+        <v>-0.1416602882735481</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.09062459864904679</v>
+        <v>0.07357710841983822</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.02254141879533689</v>
+        <v>0.0431693120659693</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1462859595167473</v>
+        <v>0.1305154437231696</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.02739879627239161</v>
+        <v>-0.08734613165720029</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.08734613165720029</v>
+        <v>-0.2152373966933864</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.2152373966933864</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.105601575935429</v>
-      </c>
-      <c r="R11" t="inlineStr">
+        <v>-0.3025835283505867</v>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>季志强</t>
         </is>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>56367536</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>0.3381717877917451</v>
+      </c>
       <c r="C12" t="n">
-        <v>0.3381717877917451</v>
+        <v>0.2028428357145437</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2028428357145437</v>
+        <v>0.5187610340294759</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5187610340294759</v>
+        <v>0.3439403451767622</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3439403451767622</v>
+        <v>0.3998969873707335</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3998969873707335</v>
+        <v>0.3851229549069316</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3851229549069316</v>
+        <v>0.2615047885178689</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2615047885178689</v>
+        <v>0.3755465317457602</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3755465317457602</v>
+        <v>0.1805892462377308</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1748206888527137</v>
+        <v>-0.1410975094622185</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1353289520772014</v>
+        <v>-0.1383921988528646</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1140417432278913</v>
+        <v>0.00957642316117141</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01477403246380188</v>
+        <v>-0.147968622014036</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.147968622014036</v>
+        <v>0.3216867556999493</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3216867556999493</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-0.08932403891618085</v>
-      </c>
-      <c r="R12" t="inlineStr">
+        <v>0.1737181336859133</v>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>徐昕睿</t>
         </is>
       </c>
+      <c r="R12" t="n">
+        <v>9</v>
+      </c>
       <c r="S12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
-      </c>
-      <c r="U12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>56696990</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>0.2005873394543371</v>
+      </c>
       <c r="C13" t="n">
-        <v>0.2005873394543371</v>
+        <v>0.3156992390118082</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3156992390118082</v>
+        <v>0.2761702607088042</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2761702607088042</v>
+        <v>0.2522426708199724</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2522426708199724</v>
+        <v>0.3989219137655614</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3989219137655614</v>
+        <v>0.2112359488418706</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2112359488418706</v>
+        <v>0.2012429328918175</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2012429328918175</v>
+        <v>0.2446042937098015</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2446042937098015</v>
+        <v>0.07558292125446708</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02392758988883176</v>
+        <v>0.06345656819183576</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1151118995574711</v>
+        <v>-0.1976789808737439</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.043361360817984</v>
+        <v>-0.03336834486793089</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1876859649236908</v>
+        <v>-0.164310636005813</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.164310636005813</v>
+        <v>0.01212635306263143</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01212635306263143</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-0.09200783629537196</v>
-      </c>
-      <c r="R13" t="inlineStr">
+        <v>-0.1521842829431817</v>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>张屿嘉</t>
         </is>
       </c>
+      <c r="R13" t="n">
+        <v>20</v>
+      </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T13" t="n">
-        <v>14</v>
-      </c>
-      <c r="U13" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>56702182</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>0.2031290937172314</v>
+      </c>
       <c r="C14" t="n">
-        <v>0.2031290937172314</v>
+        <v>0.337653713556573</v>
       </c>
       <c r="D14" t="n">
-        <v>0.337653713556573</v>
+        <v>0.3305717522535136</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3305717522535136</v>
+        <v>0.321021788161689</v>
       </c>
       <c r="F14" t="n">
-        <v>0.321021788161689</v>
+        <v>0.2000833314134164</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2000833314134164</v>
+        <v>0.3331283483480844</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3331283483480844</v>
+        <v>0.2009400051929494</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2009400051929494</v>
+        <v>0.2003949890139911</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2003949890139911</v>
+        <v>0.1274426585362822</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00954996409182457</v>
+        <v>0.01663192539488395</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.1345246198393416</v>
+        <v>0.0008566737795330237</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0005450161789583019</v>
+        <v>0.1327333593340933</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.133045016934668</v>
+        <v>-0.1318766855545602</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1318766855545602</v>
+        <v>0.1108107331413983</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1108107331413983</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.2776646170447925</v>
-      </c>
-      <c r="R14" t="inlineStr">
+        <v>-0.02106595241316203</v>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>于胡倩</t>
         </is>
       </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T14" t="n">
-        <v>14</v>
-      </c>
-      <c r="U14" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>56708148</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>0.4537323157580237</v>
+      </c>
       <c r="C15" t="n">
-        <v>0.4537323157580237</v>
+        <v>0.5085230779663994</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5085230779663994</v>
+        <v>0.4913109155316753</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4913109155316753</v>
+        <v>0.3889444047493946</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3889444047493946</v>
+        <v>0.497512338892377</v>
       </c>
       <c r="G15" t="n">
-        <v>0.497512338892377</v>
+        <v>0.3938922310663171</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3938922310663171</v>
+        <v>0.4977161865100801</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4977161865100801</v>
+        <v>0.2250562326146533</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2250562326146533</v>
+        <v>0.03757859977365158</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1023665107822807</v>
+        <v>0.1195786732170048</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0547907622083757</v>
+        <v>0.0002038476177030901</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2726599538954268</v>
+        <v>0.1688359984516638</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1036201078260599</v>
+        <v>-0.1686321508339608</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.1686321508339608</v>
+        <v>-0.08200007344335325</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.08200007344335325</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.3261971190600232</v>
-      </c>
-      <c r="R15" t="inlineStr">
+        <v>-0.2506322242773139</v>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>程新宙</t>
         </is>
       </c>
+      <c r="R15" t="n">
+        <v>14</v>
+      </c>
       <c r="S15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
-      </c>
-      <c r="U15" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>56710691</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>0.2964795387144234</v>
+      </c>
       <c r="C16" t="n">
-        <v>0.2964795387144234</v>
+        <v>0.2353158377008378</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2353158377008378</v>
+        <v>0.2936592711212488</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2936592711212488</v>
+        <v>0.2490790196833913</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2490790196833913</v>
+        <v>0.2669128989721913</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2669128989721913</v>
+        <v>0.2801094603642757</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2801094603642757</v>
+        <v>0.2803123084723661</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2803123084723661</v>
+        <v>0.2448401942909934</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2448401942909934</v>
+        <v>-0.002820267593174608</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04458025143785749</v>
+        <v>-0.0137631819825535</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06116370101358559</v>
+        <v>0.01339940950017482</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03547211418137269</v>
+        <v>0.03526926607328229</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.01319656139208442</v>
+        <v>-0.02186985657310747</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.02186985657310747</v>
+        <v>0.01094291438937889</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01094291438937889</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.03208522599772901</v>
-      </c>
-      <c r="R16" t="inlineStr">
+        <v>-0.01092694218372858</v>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>王晨祎</t>
         </is>
       </c>
+      <c r="R16" t="n">
+        <v>13</v>
+      </c>
       <c r="S16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T16" t="n">
-        <v>12</v>
-      </c>
-      <c r="U16" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>56783666</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>0.307246407959643</v>
+      </c>
       <c r="C17" t="n">
-        <v>0.307246407959643</v>
+        <v>0.3644221378984051</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3644221378984051</v>
+        <v>0.2312011940830726</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2312011940830726</v>
+        <v>0.3632282241809704</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3632282241809704</v>
+        <v>0.3240332006868455</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3240332006868455</v>
+        <v>0.2600154953552229</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2600154953552229</v>
+        <v>0.3217696834643855</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3217696834643855</v>
+        <v>0.3274929848691137</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3274929848691137</v>
+        <v>-0.07604521387657037</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1320270300978978</v>
+        <v>0.001193913717434714</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.05717572993876213</v>
+        <v>-0.002263517222459988</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.005723301404728209</v>
+        <v>-0.06747748951389082</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0640177053316226</v>
+        <v>0.06521397229143089</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06521397229143089</v>
+        <v>-0.07723912759400497</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.07723912759400497</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-0.1445923068954865</v>
-      </c>
-      <c r="R17" t="inlineStr">
+        <v>-0.01202515530257425</v>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>于金龙</t>
         </is>
       </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
-      </c>
-      <c r="U17" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>56787409</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>0.3625215679703279</v>
+      </c>
       <c r="C18" t="n">
-        <v>0.3625215679703279</v>
+        <v>0.4117067780319776</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4117067780319776</v>
+        <v>0.4016806249237958</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4016806249237958</v>
+        <v>0.3415245194280614</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3415245194280614</v>
+        <v>0.3532894909992795</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3532894909992795</v>
+        <v>0.4316506246539393</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4316506246539393</v>
+        <v>0.3622243523324907</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3622243523324907</v>
+        <v>0.2004495111340825</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2004495111340825</v>
+        <v>0.03915905695346789</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06015610549573441</v>
+        <v>0.07018225860391619</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.04918521006164966</v>
+        <v>0.008934861333211197</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1617748411984082</v>
+        <v>0.2312011135198568</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0783611336546598</v>
+        <v>-0.2222662521866456</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.2222662521866456</v>
+        <v>-0.03102320165044825</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.03102320165044825</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.3494772904104521</v>
-      </c>
-      <c r="R18" t="inlineStr">
+        <v>-0.2532894538370939</v>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>左家伟</t>
         </is>
       </c>
+      <c r="R18" t="n">
+        <v>12</v>
+      </c>
       <c r="S18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T18" t="n">
-        <v>11</v>
-      </c>
-      <c r="U18" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>56789859</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>0.2000011518744597</v>
+      </c>
       <c r="C19" t="n">
-        <v>0.2000011518744597</v>
+        <v>0.3717491380990986</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3717491380990986</v>
+        <v>0.3737188266792459</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3737188266792459</v>
+        <v>0.3397409889602075</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3397409889602075</v>
+        <v>0.3892498408235904</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3892498408235904</v>
+        <v>0.2014632100019932</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2014632100019932</v>
+        <v>0.411626201253408</v>
       </c>
       <c r="I19" t="n">
-        <v>0.411626201253408</v>
+        <v>0.2004872719610319</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2004872719610319</v>
+        <v>0.1737176748047862</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0339778377190384</v>
+        <v>0.03200814913889111</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.1717479862246389</v>
+        <v>0.02237636042981761</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2111389292923761</v>
+        <v>0.0009759380409612994</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1877866308215972</v>
+        <v>0.02140042238885631</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02140042238885631</v>
+        <v>0.1417095256658951</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1417095256658951</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.2290781224144562</v>
-      </c>
-      <c r="R19" t="inlineStr">
+        <v>0.1631099480547514</v>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>王皓璋</t>
         </is>
       </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>55758322</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>0.2679049582670391</v>
+      </c>
       <c r="C20" t="n">
-        <v>0.2679049582670391</v>
+        <v>0.4264377989886945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4264377989886945</v>
+        <v>0.3846005130170205</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3846005130170205</v>
+        <v>0.2595580560281598</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2595580560281598</v>
+        <v>0.2686466396107074</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2686466396107074</v>
+        <v>0.2007546823582733</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2007546823582733</v>
+        <v>0.384606446977329</v>
       </c>
       <c r="I20" t="n">
-        <v>0.384606446977329</v>
+        <v>0.2088971009198467</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2088971009198467</v>
+        <v>0.1166955547499814</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1250424569888607</v>
+        <v>0.1668797429605347</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.1585328407216554</v>
+        <v>0.1159598073666216</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1757093460574823</v>
+        <v>-0.008142418561573411</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0678919572524341</v>
+        <v>0.1241022259281951</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1241022259281951</v>
+        <v>-0.05018418821055326</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.05018418821055326</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.3913926865155642</v>
-      </c>
-      <c r="R20" t="inlineStr">
+        <v>0.07391803771764169</v>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>刘昊殷</t>
         </is>
       </c>
+      <c r="R20" t="n">
+        <v>9</v>
+      </c>
       <c r="S20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
-      </c>
-      <c r="U20" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>55760307</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>0.3966375085867653</v>
+      </c>
       <c r="C21" t="n">
-        <v>0.3966375085867653</v>
+        <v>0.3658330699683433</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3658330699683433</v>
+        <v>0.4056166119218621</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4056166119218621</v>
+        <v>0.4094665825648172</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4094665825648172</v>
+        <v>0.4246692250357284</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4246692250357284</v>
+        <v>0.3971933277339668</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3971933277339668</v>
+        <v>0.4057846211284699</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4057846211284699</v>
+        <v>0.3546648211795349</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3546648211795349</v>
+        <v>0.008979103335096827</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.003849970642955114</v>
+        <v>-0.04363351259647391</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03080443861842197</v>
+        <v>-0.01888460390725849</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05111979994893501</v>
+        <v>0.04252850655443191</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02747589730176159</v>
+        <v>-0.0614131104616904</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.0614131104616904</v>
+        <v>0.05261261593157074</v>
       </c>
       <c r="P21" t="n">
-        <v>0.05261261593157074</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-0.01101050661420366</v>
-      </c>
-      <c r="R21" t="inlineStr">
+        <v>-0.008800494530119662</v>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>舒琪</t>
         </is>
       </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>55763117</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>0.3065421800679949</v>
+      </c>
       <c r="C22" t="n">
-        <v>0.3065421800679949</v>
+        <v>0.2364241728932573</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2364241728932573</v>
+        <v>0.3272224395880203</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3272224395880203</v>
+        <v>0.2012118948680912</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2012118948680912</v>
+        <v>0.4466221625189637</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4466221625189637</v>
+        <v>0.4305027448094585</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4305027448094585</v>
+        <v>0.4349232834501</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4349232834501</v>
+        <v>0.2446610961576832</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2446610961576832</v>
+        <v>0.02068025952002539</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1260105447199291</v>
+        <v>0.03521227802516608</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0701180071747376</v>
+        <v>-0.01169887906886369</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1902621872924168</v>
+        <v>0.1858416486517753</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0161194177095052</v>
+        <v>-0.197540527720639</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.197540527720639</v>
+        <v>-0.01453201850514063</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.01453201850514063</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.2300353071281031</v>
-      </c>
-      <c r="R22" t="inlineStr">
+        <v>-0.2120725462257797</v>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>蔡安新</t>
         </is>
       </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>55766121</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>0.3504758637493593</v>
+      </c>
       <c r="C23" t="n">
-        <v>0.3504758637493593</v>
+        <v>0.4659335160872053</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4659335160872053</v>
+        <v>0.417453285047708</v>
       </c>
       <c r="E23" t="n">
-        <v>0.417453285047708</v>
+        <v>0.2705396681704064</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2705396681704064</v>
+        <v>0.2423715962284496</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2423715962284496</v>
+        <v>0.5512595328994903</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5512595328994903</v>
+        <v>0.406194615024829</v>
       </c>
       <c r="I23" t="n">
-        <v>0.406194615024829</v>
+        <v>0.5926604670066955</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5926604670066955</v>
+        <v>0.06697742129834872</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1469136168773016</v>
+        <v>0.1953938479167989</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.115457652337846</v>
+        <v>0.1638230187963794</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.1864658519818665</v>
+        <v>-0.04140093410720525</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.3088879366710406</v>
+        <v>0.2052239529035846</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2052239529035846</v>
+        <v>-0.1284164266184502</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.1284164266184502</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.3847933539043217</v>
-      </c>
-      <c r="R23" t="inlineStr">
+        <v>0.07680752628513451</v>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>王子菲</t>
         </is>
       </c>
+      <c r="R23" t="n">
+        <v>10</v>
+      </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
-      </c>
-      <c r="U23" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>55768880</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>0.4490886507204112</v>
+      </c>
       <c r="C24" t="n">
-        <v>0.4490886507204112</v>
+        <v>0.4916498522986891</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4916498522986891</v>
+        <v>0.3986558250120546</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3986558250120546</v>
+        <v>0.4363008677089512</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4363008677089512</v>
+        <v>0.2516279925308975</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2516279925308975</v>
+        <v>0.2027939348446095</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2027939348446095</v>
+        <v>0.4247641803024404</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4247641803024404</v>
+        <v>0.3897158792421834</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3897158792421834</v>
+        <v>-0.05043282570835661</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.03764504269689661</v>
+        <v>0.05534898458973792</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.04256120157827792</v>
+        <v>0.1731361877715429</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03504830106025697</v>
+        <v>-0.1869219443975739</v>
       </c>
       <c r="N24" t="n">
-        <v>0.04883405768628801</v>
+        <v>0.3600581321691168</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3600581321691168</v>
+        <v>-0.1057818102980945</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.1057818102980945</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>-0.008869597744649738</v>
-      </c>
-      <c r="R24" t="inlineStr">
+        <v>0.2542763218710223</v>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>刘洋</t>
         </is>
       </c>
+      <c r="R24" t="n">
+        <v>6</v>
+      </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
-      </c>
-      <c r="U24" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>55774247</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>0.3160302393589514</v>
+      </c>
       <c r="C25" t="n">
-        <v>0.3160302393589514</v>
+        <v>0.2046098338485691</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2046098338485691</v>
+        <v>0.2044490955393982</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2044490955393982</v>
+        <v>0.2480702098044099</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2480702098044099</v>
+        <v>0.3639380795839549</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3639380795839549</v>
+        <v>0.3905252722172443</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3905252722172443</v>
+        <v>0.2470253021402486</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2470253021402486</v>
+        <v>0.3649023700275096</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3649023700275096</v>
+        <v>-0.1115811438195532</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.04362111426501172</v>
+        <v>-0.04346037595584082</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1114204055103823</v>
+        <v>-0.1169127774437063</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.117877067887261</v>
+        <v>0.02562290218973473</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.0265871926332894</v>
+        <v>-0.1425356796334409</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.1425356796334409</v>
+        <v>-0.06812076786371235</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.06812076786371235</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>-0.2463313950293656</v>
-      </c>
-      <c r="R25" t="inlineStr">
+        <v>-0.2106564474971535</v>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>管笑啸</t>
         </is>
       </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
-      </c>
-      <c r="U25" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>55776021</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>0.3460131911849221</v>
+      </c>
       <c r="C26" t="n">
-        <v>0.3460131911849221</v>
+        <v>0.3095524495878587</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3095524495878587</v>
+        <v>0.4003756287453495</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4003756287453495</v>
+        <v>0.2787829761651126</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2787829761651126</v>
+        <v>0.3520429715486542</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3520429715486542</v>
+        <v>0.3590562724897652</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3590562724897652</v>
+        <v>0.2391156324155646</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2391156324155646</v>
+        <v>0.3649985990847844</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3649985990847844</v>
+        <v>0.05436243756042741</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1215926525802369</v>
+        <v>0.03076947342274611</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03646074159706336</v>
+        <v>-0.1129273391330896</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.1258829666692198</v>
+        <v>-0.005942326595019198</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.007013300941110967</v>
+        <v>-0.1069850125380705</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.1069850125380705</v>
+        <v>0.0235929641376813</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0235929641376813</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>-0.03373775474493529</v>
-      </c>
-      <c r="R26" t="inlineStr">
+        <v>-0.08339204840038911</v>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>贾凡</t>
         </is>
+      </c>
+      <c r="R26" t="n">
+        <v>8</v>
       </c>
       <c r="S26" t="n">
         <v>8</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
-      </c>
-      <c r="U26" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>55777851</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>0.2006832441766869</v>
+      </c>
       <c r="C27" t="n">
-        <v>0.2006832441766869</v>
+        <v>0.3448103503462593</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3448103503462593</v>
+        <v>0.2005333643662601</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2005333643662601</v>
+        <v>0.2989723108624728</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2989723108624728</v>
+        <v>0.3202178338354654</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3202178338354654</v>
+        <v>0.3209897012369861</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3209897012369861</v>
+        <v>0.2000931287976607</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2000931287976607</v>
+        <v>0.2870017783518784</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2870017783518784</v>
+        <v>-0.0001498798104268007</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.09843894649621268</v>
+        <v>0.04583803948378651</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.1441271061695724</v>
+        <v>-0.1201247050378047</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0869086495542177</v>
+        <v>0.03398792288510771</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.0007718674015206872</v>
+        <v>-0.1541126279229125</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.1541126279229125</v>
+        <v>-0.04598791929421331</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.04598791929421331</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>-0.04044862247933731</v>
-      </c>
-      <c r="R27" t="inlineStr">
+        <v>-0.2001005472171258</v>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>肖舜睿</t>
         </is>
       </c>
+      <c r="R27" t="n">
+        <v>7</v>
+      </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
-      </c>
-      <c r="U27" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>55779767</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>0.3679873276326448</v>
+      </c>
       <c r="C28" t="n">
-        <v>0.3679873276326448</v>
+        <v>0.3207455125126927</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3207455125126927</v>
+        <v>0.4942814782548441</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4942814782548441</v>
+        <v>0.3661581739034296</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3661581739034296</v>
+        <v>0.251678867825897</v>
       </c>
       <c r="G28" t="n">
-        <v>0.251678867825897</v>
+        <v>0.349776444131232</v>
       </c>
       <c r="H28" t="n">
-        <v>0.349776444131232</v>
+        <v>0.3605217225702972</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3605217225702972</v>
+        <v>0.2875136259423812</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2875136259423812</v>
+        <v>0.1262941506221993</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1281233043514145</v>
+        <v>-0.04541266139073691</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04724181511995212</v>
+        <v>0.1088428547444002</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07300809662791596</v>
+        <v>0.06226281818885077</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.098097576305335</v>
+        <v>0.04658003655554943</v>
       </c>
       <c r="O28" t="n">
-        <v>0.04658003655554943</v>
+        <v>0.1717068120129362</v>
       </c>
       <c r="P28" t="n">
-        <v>0.1717068120129362</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.2519871621647133</v>
-      </c>
-      <c r="R28" t="inlineStr">
+        <v>0.2182868485684856</v>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>林雨仙</t>
         </is>
       </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>55781652</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>0.3409202352110192</v>
+      </c>
       <c r="C29" t="n">
-        <v>0.3409202352110192</v>
+        <v>0.2460861896983159</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2460861896983159</v>
+        <v>0.3400085861434115</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3400085861434115</v>
+        <v>0.288593878273142</v>
       </c>
       <c r="F29" t="n">
-        <v>0.288593878273142</v>
+        <v>0.3160724726773223</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3160724726773223</v>
+        <v>0.2000459061740157</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2000459061740157</v>
+        <v>0.2005896567607357</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2005896567607357</v>
+        <v>0.4070627051029373</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4070627051029373</v>
+        <v>-0.0009116490676077116</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05141470787026953</v>
+        <v>-0.04250768857482609</v>
       </c>
       <c r="L29" t="n">
-        <v>0.09483404551270333</v>
+        <v>-0.1154828159165866</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.2064730483422016</v>
+        <v>-0.2070167989289216</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1160265665033066</v>
+        <v>0.09153398301233506</v>
       </c>
       <c r="O29" t="n">
-        <v>0.09153398301233506</v>
+        <v>0.04159603950721846</v>
       </c>
       <c r="P29" t="n">
-        <v>0.04159603950721846</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>-0.365918952487942</v>
-      </c>
-      <c r="R29" t="inlineStr">
+        <v>0.1331300225195534</v>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>符慧跃</t>
         </is>
       </c>
+      <c r="R29" t="n">
+        <v>15</v>
+      </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T29" t="n">
-        <v>12</v>
-      </c>
-      <c r="U29" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>55850187</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>0.3632995060659673</v>
+      </c>
       <c r="C30" t="n">
-        <v>0.3632995060659673</v>
+        <v>0.2038328712406662</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2038328712406662</v>
+        <v>0.4276760416185263</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4276760416185263</v>
+        <v>0.235702300233123</v>
       </c>
       <c r="F30" t="n">
-        <v>0.235702300233123</v>
+        <v>0.3918355449540119</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3918355449540119</v>
+        <v>0.2008921297271484</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2008921297271484</v>
+        <v>0.3685771796024781</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3685771796024781</v>
+        <v>0.2328508806132077</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2328508806132077</v>
+        <v>0.06437653555255901</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1919737413854033</v>
+        <v>-0.03186942899245679</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1594666348253011</v>
+        <v>-0.02325836535153381</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1357262989892704</v>
+        <v>-0.03195875088605929</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1909434152268635</v>
+        <v>0.008700385534525568</v>
       </c>
       <c r="O30" t="n">
-        <v>0.008700385534525568</v>
+        <v>0.09624596454501577</v>
       </c>
       <c r="P30" t="n">
-        <v>0.09624596454501577</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>-0.02271000967749087</v>
-      </c>
-      <c r="R30" t="inlineStr">
+        <v>0.1049463500795413</v>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>徐正圆</t>
         </is>
       </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
           <t>55852656</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>0.3517100404651035</v>
+      </c>
       <c r="C31" t="n">
-        <v>0.3517100404651035</v>
+        <v>0.2488006959117182</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2488006959117182</v>
+        <v>0.2736726678068063</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2736726678068063</v>
+        <v>0.3195530804568952</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3195530804568952</v>
+        <v>0.2976151680426955</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2976151680426955</v>
+        <v>0.3271301548016121</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3271301548016121</v>
+        <v>0.3041502562208609</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3041502562208609</v>
+        <v>0.281754959953298</v>
       </c>
       <c r="J31" t="n">
-        <v>0.281754959953298</v>
+        <v>-0.07803737265829719</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.04588041265008885</v>
+        <v>-0.07075238454517699</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1029093445533853</v>
+        <v>0.006535088178165394</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02239529626756287</v>
+        <v>0.04537519484831409</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.02951498675891662</v>
+        <v>-0.0388401066701487</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.0388401066701487</v>
+        <v>-0.007284988113120172</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.007284988113120172</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>-0.09687947417699469</v>
-      </c>
-      <c r="R31" t="inlineStr">
+        <v>-0.0461250947832689</v>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>陈圣泽</t>
         </is>
       </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
-      </c>
-      <c r="U31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>55854618</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>0.3725537637154916</v>
+      </c>
       <c r="C32" t="n">
-        <v>0.3725537637154916</v>
+        <v>0.2126681664947568</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2126681664947568</v>
+        <v>0.3019395914267025</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3019395914267025</v>
+        <v>0.3450638908743544</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3450638908743544</v>
+        <v>0.4201022522004504</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4201022522004504</v>
+        <v>0.3317317802441126</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3317317802441126</v>
+        <v>0.3763549528078007</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3763549528078007</v>
+        <v>0.3632535820141006</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3632535820141006</v>
+        <v>-0.07061417228878908</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.04312429944765189</v>
+        <v>-0.1323957243795976</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1598855972207348</v>
+        <v>-0.04374729939264971</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01310137079370011</v>
+        <v>-0.03152180176998798</v>
       </c>
       <c r="N32" t="n">
-        <v>0.08837047195633779</v>
+        <v>-0.01222549762266167</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.01222549762266167</v>
+        <v>0.06178155209080849</v>
       </c>
       <c r="P32" t="n">
-        <v>0.06178155209080849</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>-0.2782789978310244</v>
-      </c>
-      <c r="R32" t="inlineStr">
+        <v>0.04955605446814679</v>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>黄泽铭</t>
         </is>
       </c>
+      <c r="R32" t="n">
+        <v>12</v>
+      </c>
       <c r="S32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
-      </c>
-      <c r="U32" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>55860282</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>0.3809611965067815</v>
+      </c>
       <c r="C33" t="n">
-        <v>0.3809611965067815</v>
+        <v>0.4410872433847814</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4410872433847814</v>
+        <v>0.2038243490447192</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2038243490447192</v>
+        <v>0.3071011250765472</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3071011250765472</v>
+        <v>0.3419972291908341</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3419972291908341</v>
+        <v>0.429507562772789</v>
       </c>
       <c r="H33" t="n">
-        <v>0.429507562772789</v>
+        <v>0.3719124547028704</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3719124547028704</v>
+        <v>0.2300438811770107</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2300438811770107</v>
+        <v>-0.1771368474620623</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.103276776031828</v>
+        <v>0.1339861183082342</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.06012604687799988</v>
+        <v>0.02991522551203629</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1418685735258597</v>
+        <v>0.1994636815957783</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.08751033358195492</v>
+        <v>-0.169548456083742</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.169548456083742</v>
+        <v>-0.3111229657702965</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.3111229657702965</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.1862281779539865</v>
-      </c>
-      <c r="R33" t="inlineStr">
+        <v>-0.4806714218540385</v>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>石玥</t>
         </is>
       </c>
+      <c r="R33" t="n">
+        <v>12</v>
+      </c>
       <c r="S33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
-      </c>
-      <c r="U33" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>55862633</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>0.4075793457678222</v>
+      </c>
       <c r="C34" t="n">
-        <v>0.4075793457678222</v>
+        <v>0.3557278292976479</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3557278292976479</v>
+        <v>0.4219917421827768</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4219917421827768</v>
+        <v>0.3709478521097663</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3709478521097663</v>
+        <v>0.2103559435427264</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2103559435427264</v>
+        <v>0.4778966059963028</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4778966059963028</v>
+        <v>0.3761345006737613</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3761345006737613</v>
+        <v>0.2536493724355755</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2536493724355755</v>
+        <v>0.01441239641495462</v>
       </c>
       <c r="K34" t="n">
-        <v>0.05104389007301052</v>
+        <v>-0.01522002281211837</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05185151647017427</v>
+        <v>0.1657785571310349</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1224851282381858</v>
+        <v>0.2242472335607273</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.2675406624535764</v>
+        <v>-0.05846867642969245</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.05846867642969245</v>
+        <v>0.02963241922707294</v>
       </c>
       <c r="P34" t="n">
-        <v>0.02963241922707294</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.3892181642945984</v>
-      </c>
-      <c r="R34" t="inlineStr">
+        <v>-0.0288362572026194</v>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>张楚晨</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>55864604</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>0.3558655294549376</v>
+      </c>
       <c r="C35" t="n">
-        <v>0.3558655294549376</v>
+        <v>0.3338411986992387</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3338411986992387</v>
+        <v>0.3726871376980466</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3726871376980466</v>
+        <v>0.2468861220722252</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2468861220722252</v>
+        <v>0.2316294687090749</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2316294687090749</v>
+        <v>0.2005890257616591</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2005890257616591</v>
+        <v>0.4397142812684556</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4397142812684556</v>
+        <v>0.3140557562130129</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3140557562130129</v>
+        <v>0.01682160824310902</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1258010156258214</v>
+        <v>0.08695507662701346</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02202433075569893</v>
+        <v>0.2080848125593807</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1256585250554427</v>
+        <v>-0.1134667304513538</v>
       </c>
       <c r="N35" t="n">
-        <v>0.03104044294741579</v>
+        <v>0.3215515430107344</v>
       </c>
       <c r="O35" t="n">
-        <v>0.3215515430107344</v>
+        <v>-0.07013346838390433</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.07013346838390433</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.1983947669781494</v>
-      </c>
-      <c r="R35" t="inlineStr">
+        <v>0.2514180746268301</v>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>冯雨晨</t>
         </is>
       </c>
+      <c r="R35" t="n">
+        <v>7</v>
+      </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
-      </c>
-      <c r="U35" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
           <t>55866572</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>0.3703366027706042</v>
+      </c>
       <c r="C36" t="n">
-        <v>0.3703366027706042</v>
+        <v>0.3469048539497162</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3469048539497162</v>
+        <v>0.2221209624887501</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2221209624887501</v>
+        <v>0.3926528329925957</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3926528329925957</v>
+        <v>0.3787895013546432</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3787895013546432</v>
+        <v>0.3540187362605101</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3540187362605101</v>
+        <v>0.3790357749775067</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3790357749775067</v>
+        <v>0.2737005235416693</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2737005235416693</v>
+        <v>-0.1482156402818541</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.1705318705038456</v>
+        <v>-0.04574797904287947</v>
       </c>
       <c r="L36" t="n">
-        <v>0.023431748820888</v>
+        <v>0.0002462736228635021</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1053352514358374</v>
+        <v>0.08031821271884082</v>
       </c>
       <c r="N36" t="n">
-        <v>0.02477076509413306</v>
+        <v>-0.08007193909597721</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.08007193909597721</v>
+        <v>-0.1024676612389747</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.1024676612389747</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>-0.1133991329830293</v>
-      </c>
-      <c r="R36" t="inlineStr">
+        <v>-0.182539600334952</v>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>魏子航</t>
         </is>
       </c>
+      <c r="R36" t="n">
+        <v>8</v>
+      </c>
       <c r="S36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T36" t="n">
-        <v>9</v>
-      </c>
-      <c r="U36" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>55868471</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>0.2002115687194756</v>
+      </c>
       <c r="C37" t="n">
-        <v>0.2002115687194756</v>
+        <v>0.2017132777689209</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2017132777689209</v>
+        <v>0.2002121836924251</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2002121836924251</v>
+        <v>0.2592394435980565</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2592394435980565</v>
+        <v>0.2534505675458299</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2534505675458299</v>
+        <v>0.3190630041810144</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3190630041810144</v>
+        <v>0.2003812915411139</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2003812915411139</v>
+        <v>0.201866311406281</v>
       </c>
       <c r="J37" t="n">
-        <v>0.201866311406281</v>
+        <v>6.149729495086298e-07</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0590272599056314</v>
+        <v>-0.05752616582913561</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.001501709049445299</v>
+        <v>-0.053069276004716</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.001485019865167109</v>
+        <v>0.1171966927747334</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.06561243663518451</v>
+        <v>-0.1702659687794494</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.1702659687794494</v>
+        <v>0.05752678080208512</v>
       </c>
       <c r="P37" t="n">
-        <v>0.05752678080208512</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.006601865913831301</v>
-      </c>
-      <c r="R37" t="inlineStr">
+        <v>-0.1127391879773643</v>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>瞿蓉蓉</t>
         </is>
       </c>
+      <c r="R37" t="n">
+        <v>9</v>
+      </c>
       <c r="S37" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
-        <v>6</v>
-      </c>
-      <c r="U37" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
           <t>55916641</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>0.2010793474475587</v>
+      </c>
       <c r="C38" t="n">
-        <v>0.2010793474475587</v>
+        <v>0.2004086934848096</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2004086934848096</v>
+        <v>0.2451857770581886</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2451857770581886</v>
+        <v>0.2042803380476562</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2042803380476562</v>
+        <v>0.2009902887923211</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2009902887923211</v>
+        <v>0.2015175514230799</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2015175514230799</v>
+        <v>0.257956578232564</v>
       </c>
       <c r="I38" t="n">
-        <v>0.257956578232564</v>
+        <v>0.2212057596316302</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2212057596316302</v>
+        <v>0.04410642961062988</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0409054390105324</v>
+        <v>-0.003871644562846582</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0006706539627490959</v>
+        <v>0.05696628944024293</v>
       </c>
       <c r="M38" t="n">
-        <v>0.03675081860093382</v>
+        <v>-0.0196882082085503</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.0005272626307588069</v>
+        <v>0.07665449764879323</v>
       </c>
       <c r="O38" t="n">
-        <v>0.07665449764879323</v>
+        <v>0.04797807417347644</v>
       </c>
       <c r="P38" t="n">
-        <v>0.04797807417347644</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.07751286627947593</v>
-      </c>
-      <c r="R38" t="inlineStr">
+        <v>0.1246325718222697</v>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>伍凯鹏</t>
         </is>
+      </c>
+      <c r="R38" t="n">
+        <v>7</v>
       </c>
       <c r="S38" t="n">
         <v>7</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
-      </c>
-      <c r="U38" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
           <t>55918750</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>0.2011152116034075</v>
+      </c>
       <c r="C39" t="n">
-        <v>0.2011152116034075</v>
+        <v>0.2906366681906547</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2906366681906547</v>
+        <v>0.3117819986163909</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3117819986163909</v>
+        <v>0.3126175479973929</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3126175479973929</v>
+        <v>0.2433938690021538</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2433938690021538</v>
+        <v>0.3228220042065289</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3228220042065289</v>
+        <v>0.2045890851251711</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2045890851251711</v>
+        <v>0.2824293691077016</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2824293691077016</v>
+        <v>0.1106667870129834</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0008355493810019987</v>
+        <v>-0.02198087980673818</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.08952145658724719</v>
+        <v>-0.03880478387698269</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.07784028398253051</v>
+        <v>0.04039263509882729</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.07942813520437511</v>
+        <v>-0.07919741897581001</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.07919741897581001</v>
+        <v>0.1326476668197215</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1326476668197215</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.0902737584280898</v>
-      </c>
-      <c r="R39" t="inlineStr">
+        <v>0.05345024784391159</v>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>邹阳</t>
         </is>
       </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
-      </c>
-      <c r="U39" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
           <t>55928394</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>0.3425041119303141</v>
+      </c>
       <c r="C40" t="n">
-        <v>0.3425041119303141</v>
+        <v>0.2006879762863423</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2006879762863423</v>
+        <v>0.3302486235883646</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3302486235883646</v>
+        <v>0.2256686846412978</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2256686846412978</v>
+        <v>0.4657206439754099</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4657206439754099</v>
+        <v>0.3692457563920097</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3692457563920097</v>
+        <v>0.3085650905467819</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3085650905467819</v>
+        <v>0.2489516918707589</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2489516918707589</v>
+        <v>-0.01225548834194951</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1045799389470668</v>
+        <v>-0.0249807083549555</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1418161356439718</v>
+        <v>-0.157155553428628</v>
       </c>
       <c r="M40" t="n">
-        <v>0.05961339867602297</v>
+        <v>0.1202940645212508</v>
       </c>
       <c r="N40" t="n">
-        <v>0.09647488758340023</v>
+        <v>-0.2774496179498788</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.2774496179498788</v>
+        <v>0.01272522001300602</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01272522001300602</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-0.07409768560428226</v>
-      </c>
-      <c r="R40" t="inlineStr">
+        <v>-0.2647243979368728</v>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>郑栋栋</t>
         </is>
       </c>
+      <c r="R40" t="n">
+        <v>8</v>
+      </c>
       <c r="S40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
           <t>55931580</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>0.4082439605306369</v>
+      </c>
       <c r="C41" t="n">
-        <v>0.4082439605306369</v>
+        <v>0.3342726465888885</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3342726465888885</v>
+        <v>0.2811572732747917</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2811572732747917</v>
+        <v>0.3634346491472263</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3634346491472263</v>
+        <v>0.3687882375054229</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3687882375054229</v>
+        <v>0.245160092652132</v>
       </c>
       <c r="H41" t="n">
-        <v>0.245160092652132</v>
+        <v>0.3696345719500595</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3696345719500595</v>
+        <v>0.3139101746660105</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3139101746660105</v>
+        <v>-0.1270866872558452</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.08227737587243461</v>
+        <v>-0.02916200255833779</v>
       </c>
       <c r="L41" t="n">
-        <v>0.07397131394174838</v>
+        <v>0.0008463344446366095</v>
       </c>
       <c r="M41" t="n">
-        <v>0.05572439728404899</v>
+        <v>-0.0687500820138785</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1236281448532909</v>
+        <v>0.06959641645851511</v>
       </c>
       <c r="O41" t="n">
-        <v>0.06959641645851511</v>
+        <v>-0.09792468469750737</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.09792468469750737</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-0.2241524373834249</v>
-      </c>
-      <c r="R41" t="inlineStr">
+        <v>-0.02832826823899232</v>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>高越</t>
         </is>
       </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
-      </c>
-      <c r="U41" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>55936390</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>0.2412350839103585</v>
+      </c>
       <c r="C42" t="n">
-        <v>0.2412350839103585</v>
+        <v>0.3079888242730707</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3079888242730707</v>
+        <v>0.2223723304648711</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2223723304648711</v>
+        <v>0.2005943453747152</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2005943453747152</v>
+        <v>0.203490944858955</v>
       </c>
       <c r="G42" t="n">
-        <v>0.203490944858955</v>
+        <v>0.2344477565478225</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2344477565478225</v>
+        <v>0.3168077321105896</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3168077321105896</v>
+        <v>0.2574694347922595</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2574694347922595</v>
+        <v>-0.01886275344548741</v>
       </c>
       <c r="K42" t="n">
-        <v>0.02177798509015588</v>
+        <v>0.1073944788983555</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.06675374036271223</v>
+        <v>0.1133167872516346</v>
       </c>
       <c r="M42" t="n">
-        <v>0.05933829731833012</v>
+        <v>-0.02302167824443699</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.03095681168886749</v>
+        <v>0.1363384654960715</v>
       </c>
       <c r="O42" t="n">
-        <v>0.1363384654960715</v>
+        <v>-0.126257232343843</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.126257232343843</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.1788268344600657</v>
-      </c>
-      <c r="R42" t="inlineStr">
+        <v>0.01008123315222867</v>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>刘家源</t>
         </is>
       </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
-      </c>
-      <c r="U42" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
           <t>55938914</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>0.4726473421398141</v>
+      </c>
       <c r="C43" t="n">
-        <v>0.4726473421398141</v>
+        <v>0.4716357526958087</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4716357526958087</v>
+        <v>0.2170202992013231</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2170202992013231</v>
+        <v>0.4349537987814411</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4349537987814411</v>
+        <v>0.3514922402893322</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3514922402893322</v>
+        <v>0.4847085930677395</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4847085930677395</v>
+        <v>0.3639635081517584</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3639635081517584</v>
+        <v>0.4313158542071418</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4313158542071418</v>
+        <v>-0.255627042938491</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.217933499580118</v>
+        <v>0.03668195391436763</v>
       </c>
       <c r="L43" t="n">
-        <v>0.001011589444005367</v>
+        <v>0.01247126786242619</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.06735234605538343</v>
+        <v>0.0533927388605977</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.1332163527784073</v>
+        <v>-0.04092147099817145</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.04092147099817145</v>
+        <v>-0.2923089968528586</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.2923089968528586</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>-0.1530810823010995</v>
-      </c>
-      <c r="R43" t="inlineStr">
+        <v>-0.3332304678510301</v>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>胡禄美</t>
         </is>
       </c>
+      <c r="R43" t="n">
+        <v>10</v>
+      </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
-      </c>
-      <c r="U43" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
           <t>55949248</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>0.2003674252948677</v>
+      </c>
       <c r="C44" t="n">
-        <v>0.2003674252948677</v>
+        <v>0.2329982636551134</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2329982636551134</v>
+        <v>0.3548320399499202</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3548320399499202</v>
+        <v>0.2158876929278131</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2158876929278131</v>
+        <v>0.3471868338960243</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3471868338960243</v>
+        <v>0.2255580783339298</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2255580783339298</v>
+        <v>0.353153834517097</v>
       </c>
       <c r="I44" t="n">
-        <v>0.353153834517097</v>
+        <v>0.2007964211938694</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2007964211938694</v>
+        <v>0.1544646146550525</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1389443470221071</v>
+        <v>0.01711057072730029</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.03263083836024569</v>
+        <v>0.005967000621072693</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1523574133232276</v>
+        <v>0.0247616571400604</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1216287555620945</v>
+        <v>-0.01879465651898771</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.01879465651898771</v>
+        <v>0.1373540439277522</v>
       </c>
       <c r="P44" t="n">
-        <v>0.1373540439277522</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.2023038431434858</v>
-      </c>
-      <c r="R44" t="inlineStr">
+        <v>0.1185593874087645</v>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>陈奕诺</t>
         </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
-      </c>
-      <c r="U44" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
           <t>55951038</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>0.2936659854591388</v>
+      </c>
       <c r="C45" t="n">
-        <v>0.2936659854591388</v>
+        <v>0.3418463533256458</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3418463533256458</v>
+        <v>0.2007815321612154</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2007815321612154</v>
+        <v>0.3383832952376126</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3383832952376126</v>
+        <v>0.3666988373588216</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3666988373588216</v>
+        <v>0.4045489375134494</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4045489375134494</v>
+        <v>0.3547897686082465</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3547897686082465</v>
+        <v>0.2000705945580718</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2000705945580718</v>
+        <v>-0.09288445329792341</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.1376017630763972</v>
+        <v>0.003463058088033155</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.04818036786650698</v>
+        <v>-0.01190906875057507</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1547191740501747</v>
+        <v>0.2044783429553776</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.03785010015462781</v>
+        <v>-0.2163874117059528</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.2163874117059528</v>
+        <v>-0.09634751138595654</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.09634751138595654</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.1031478789949123</v>
-      </c>
-      <c r="R45" t="inlineStr">
+        <v>-0.3127349230919092</v>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>凌佩儿</t>
         </is>
       </c>
+      <c r="R45" t="n">
+        <v>7</v>
+      </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
-      </c>
-      <c r="U45" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
           <t>56015648</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>0.3461479000178624</v>
+      </c>
       <c r="C46" t="n">
-        <v>0.3461479000178624</v>
+        <v>0.2036307539572142</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2036307539572142</v>
+        <v>0.2008993936364541</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2008993936364541</v>
+        <v>0.3392600840903981</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3392600840903981</v>
+        <v>0.3550103475830766</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3550103475830766</v>
+        <v>0.2007690862562661</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2007690862562661</v>
+        <v>0.3654036188992191</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3654036188992191</v>
+        <v>0.2387727005425985</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2387727005425985</v>
+        <v>-0.1452485063814083</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.138360690453944</v>
+        <v>-0.1356293301331839</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1425171460606482</v>
+        <v>0.01039327131614248</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1266309183566206</v>
+        <v>-0.03800361428633239</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1542412613268105</v>
+        <v>0.0483968856024749</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0483968856024749</v>
+        <v>-0.009619176248224504</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.009619176248224504</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>-0.3084881794847821</v>
-      </c>
-      <c r="R46" t="inlineStr">
+        <v>0.03877770935425048</v>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>陈佳铭</t>
         </is>
       </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
-      </c>
-      <c r="U46" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>56020297</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>0.2007868682122761</v>
+      </c>
       <c r="C47" t="n">
-        <v>0.2007868682122761</v>
+        <v>0.3528165287021159</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3528165287021159</v>
+        <v>0.2385920931885684</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2385920931885684</v>
+        <v>0.2767303711258485</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2767303711258485</v>
+        <v>0.2006608984597756</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2006608984597756</v>
+        <v>0.2616024139356058</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2616024139356058</v>
+        <v>0.4595804629526932</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4595804629526932</v>
+        <v>0.341388867166025</v>
       </c>
       <c r="J47" t="n">
-        <v>0.341388867166025</v>
+        <v>0.0378052249762923</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.03813827793728009</v>
+        <v>0.07608615757626741</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.1520296604898398</v>
+        <v>0.2589195644929176</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1181915957866682</v>
+        <v>-0.07978645323041922</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.06094151547583018</v>
+        <v>0.3387060177233367</v>
       </c>
       <c r="O47" t="n">
-        <v>0.3387060177233367</v>
+        <v>-0.03828093259997511</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.03828093259997511</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.2930244938150581</v>
-      </c>
-      <c r="R47" t="inlineStr">
+        <v>0.3004250851233617</v>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>陈浩然</t>
         </is>
       </c>
+      <c r="R47" t="n">
+        <v>10</v>
+      </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T47" t="n">
-        <v>6</v>
-      </c>
-      <c r="U47" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
           <t>56024896</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>0.2003899488131229</v>
+      </c>
       <c r="C48" t="n">
-        <v>0.2003899488131229</v>
+        <v>0.3681811342776783</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3681811342776783</v>
+        <v>0.2001585425326531</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2001585425326531</v>
+        <v>0.2697188660589477</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2697188660589477</v>
+        <v>0.2418290958929712</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2418290958929712</v>
+        <v>0.3105592132403705</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3105592132403705</v>
+        <v>0.3645939090877467</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3645939090877467</v>
+        <v>0.2941238860456461</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2941238860456461</v>
+        <v>-0.0002314062804697758</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.06956032352629457</v>
+        <v>0.09846226821873061</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.1677911854645554</v>
+        <v>0.1227648131947755</v>
       </c>
       <c r="M48" t="n">
-        <v>0.07047002304210059</v>
+        <v>0.0164353271947244</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.06873011734739931</v>
+        <v>0.1063294860000511</v>
       </c>
       <c r="O48" t="n">
-        <v>0.1063294860000511</v>
+        <v>-0.09869367449920041</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.09869367449920041</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.2374310023277607</v>
-      </c>
-      <c r="R48" t="inlineStr">
+        <v>0.007635811500850714</v>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>刘李浚</t>
         </is>
       </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
-      </c>
-      <c r="U48" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
           <t>56027303</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>0.3716656031291612</v>
+      </c>
       <c r="C49" t="n">
-        <v>0.3716656031291612</v>
+        <v>0.3287220983026767</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3287220983026767</v>
+        <v>0.3634887824475172</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3634887824475172</v>
+        <v>0.2013882097430273</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2013882097430273</v>
+        <v>0.3857904072041197</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3857904072041197</v>
+        <v>0.4015682350169939</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4015682350169939</v>
+        <v>0.2875688185885325</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2875688185885325</v>
+        <v>0.2749965643488392</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2749965643488392</v>
+        <v>-0.008176820681643993</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1621005727044899</v>
+        <v>0.1273338885596494</v>
       </c>
       <c r="L49" t="n">
-        <v>0.04294350482648451</v>
+        <v>-0.09822158861558722</v>
       </c>
       <c r="M49" t="n">
-        <v>0.01257225423969333</v>
+        <v>0.1265716706681547</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.01577782781287418</v>
+        <v>-0.2247932592837419</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.2247932592837419</v>
+        <v>-0.1355107092412933</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.1355107092412933</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.1475071499305729</v>
-      </c>
-      <c r="R49" t="inlineStr">
+        <v>-0.3603039685250353</v>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>谭天慧</t>
         </is>
       </c>
+      <c r="R49" t="n">
+        <v>12</v>
+      </c>
       <c r="S49" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T49" t="n">
-        <v>8</v>
-      </c>
-      <c r="U49" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
           <t>56035722</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>0.4664974567270628</v>
+      </c>
       <c r="C50" t="n">
-        <v>0.4664974567270628</v>
+        <v>0.339785053698986</v>
       </c>
       <c r="D50" t="n">
-        <v>0.339785053698986</v>
+        <v>0.2866646666006959</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2866646666006959</v>
+        <v>0.3664917519257529</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3664917519257529</v>
+        <v>0.2004246757354693</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2004246757354693</v>
+        <v>0.3467467479918283</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3467467479918283</v>
+        <v>0.4114425267294527</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4114425267294527</v>
+        <v>0.2006259609001753</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2006259609001753</v>
+        <v>-0.1798327901263669</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.079827085325057</v>
+        <v>-0.02670669822676691</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1267124030280768</v>
+        <v>0.2110178509939834</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2108165658292774</v>
+        <v>0.146120787091653</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.146322072256359</v>
+        <v>0.06489706390233041</v>
       </c>
       <c r="O50" t="n">
-        <v>0.06489706390233041</v>
+        <v>-0.1531260918995999</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.1531260918995999</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.1505991497325026</v>
-      </c>
-      <c r="R50" t="inlineStr">
+        <v>-0.08822902799726959</v>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>江凯翔</t>
         </is>
       </c>
+      <c r="R50" t="n">
+        <v>15</v>
+      </c>
       <c r="S50" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T50" t="n">
-        <v>9</v>
-      </c>
-      <c r="U50" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
           <t>56040135</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>0.3957634131746644</v>
+      </c>
       <c r="C51" t="n">
-        <v>0.3957634131746644</v>
+        <v>0.3923774223735115</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3923774223735115</v>
+        <v>0.3713476321810685</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3713476321810685</v>
+        <v>0.2008371374775193</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2008371374775193</v>
+        <v>0.5285300818685764</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5285300818685764</v>
+        <v>0.4007700160636476</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4007700160636476</v>
+        <v>0.3871608365838665</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3871608365838665</v>
+        <v>0.4235077888639209</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4235077888639209</v>
+        <v>-0.02441578099359593</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1705104947035492</v>
+        <v>0.1915402848959922</v>
       </c>
       <c r="L51" t="n">
-        <v>0.003385990801152927</v>
+        <v>-0.1413692452847099</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.03634695228005436</v>
+        <v>-0.02273777280027328</v>
       </c>
       <c r="N51" t="n">
-        <v>0.1277600658049288</v>
+        <v>-0.1186314724844366</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.1186314724844366</v>
+        <v>-0.215956065889588</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.215956065889588</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.003017485817413068</v>
-      </c>
-      <c r="R51" t="inlineStr">
+        <v>-0.3345875383740247</v>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>刘栩嘉</t>
         </is>
       </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>4</v>
-      </c>
-      <c r="U51" t="n">
         <v>6</v>
       </c>
     </row>
